--- a/data/df_imputed_test.xlsx
+++ b/data/df_imputed_test.xlsx
@@ -1048,7 +1048,7 @@
         <v>26</v>
       </c>
       <c r="B44" t="n">
-        <v>2.307692307692307</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
@@ -1790,7 +1790,7 @@
         <v>62</v>
       </c>
       <c r="B97" t="n">
-        <v>3.769230769230769</v>
+        <v>4</v>
       </c>
       <c r="C97" t="n">
         <v>4</v>
@@ -1891,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>2.307692307692307</v>
+        <v>2</v>
       </c>
       <c r="D104" t="n">
         <v>0.8</v>
@@ -1961,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="C109" t="n">
-        <v>3.615384615384615</v>
+        <v>4</v>
       </c>
       <c r="D109" t="n">
         <v>6.1</v>
@@ -1989,7 +1989,7 @@
         <v>4</v>
       </c>
       <c r="C111" t="n">
-        <v>2.384615384615385</v>
+        <v>2</v>
       </c>
       <c r="D111" t="n">
         <v>1.8</v>
@@ -3249,7 +3249,7 @@
         <v>5</v>
       </c>
       <c r="C201" t="n">
-        <v>4.307692307692307</v>
+        <v>5</v>
       </c>
       <c r="D201" t="n">
         <v>8.9</v>
@@ -3403,7 +3403,7 @@
         <v>4</v>
       </c>
       <c r="C212" t="n">
-        <v>3.538461538461538</v>
+        <v>2</v>
       </c>
       <c r="D212" t="n">
         <v>4.4</v>
@@ -4464,10 +4464,10 @@
         <v>37</v>
       </c>
       <c r="B288" t="n">
-        <v>5</v>
+        <v>4.076923076923077</v>
       </c>
       <c r="C288" t="n">
-        <v>3.230769230769231</v>
+        <v>3</v>
       </c>
       <c r="D288" t="n">
         <v>4.1</v>
@@ -4523,7 +4523,7 @@
         <v>2</v>
       </c>
       <c r="C292" t="n">
-        <v>3.153846153846154</v>
+        <v>4</v>
       </c>
       <c r="D292" t="n">
         <v>5</v>
@@ -4898,7 +4898,7 @@
         <v>52</v>
       </c>
       <c r="B319" t="n">
-        <v>2.538461538461538</v>
+        <v>3</v>
       </c>
       <c r="C319" t="n">
         <v>3</v>
@@ -5167,7 +5167,7 @@
         <v>5</v>
       </c>
       <c r="C338" t="n">
-        <v>3</v>
+        <v>4.615384615384615</v>
       </c>
       <c r="D338" t="n">
         <v>4.5</v>
@@ -5321,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="C349" t="n">
-        <v>4</v>
+        <v>3.076923076923077</v>
       </c>
       <c r="D349" t="n">
         <v>7.1</v>
@@ -6004,7 +6004,7 @@
         <v>50</v>
       </c>
       <c r="B398" t="n">
-        <v>1</v>
+        <v>3.615384615384615</v>
       </c>
       <c r="C398" t="n">
         <v>4</v>
@@ -6189,7 +6189,7 @@
         <v>3</v>
       </c>
       <c r="C411" t="n">
-        <v>2</v>
+        <v>3.153846153846154</v>
       </c>
       <c r="D411" t="n">
         <v>3</v>
@@ -7684,7 +7684,7 @@
         <v>50</v>
       </c>
       <c r="B518" t="n">
-        <v>3.923076923076923</v>
+        <v>4</v>
       </c>
       <c r="C518" t="n">
         <v>4</v>
@@ -7841,7 +7841,7 @@
         <v>4</v>
       </c>
       <c r="C529" t="n">
-        <v>4.461538461538462</v>
+        <v>4</v>
       </c>
       <c r="D529" t="n">
         <v>6.85</v>
@@ -8037,7 +8037,7 @@
         <v>6</v>
       </c>
       <c r="C543" t="n">
-        <v>4</v>
+        <v>4.461538461538462</v>
       </c>
       <c r="D543" t="n">
         <v>6</v>
@@ -8314,7 +8314,7 @@
         <v>56</v>
       </c>
       <c r="B563" t="n">
-        <v>2</v>
+        <v>2.384615384615385</v>
       </c>
       <c r="C563" t="n">
         <v>3</v>
@@ -8580,7 +8580,7 @@
         <v>60</v>
       </c>
       <c r="B582" t="n">
-        <v>3.538461538461538</v>
+        <v>5</v>
       </c>
       <c r="C582" t="n">
         <v>4</v>
@@ -9420,7 +9420,7 @@
         <v>39</v>
       </c>
       <c r="B642" t="n">
-        <v>5</v>
+        <v>3.153846153846154</v>
       </c>
       <c r="C642" t="n">
         <v>3</v>
@@ -10095,7 +10095,7 @@
         <v>3</v>
       </c>
       <c r="C690" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D690" t="n">
         <v>6.5</v>
@@ -10148,7 +10148,7 @@
         <v>64</v>
       </c>
       <c r="B694" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C694" t="n">
         <v>4</v>
@@ -10557,7 +10557,7 @@
         <v>4</v>
       </c>
       <c r="C723" t="n">
-        <v>2</v>
+        <v>2.692307692307693</v>
       </c>
       <c r="D723" t="n">
         <v>3.2</v>
@@ -10694,7 +10694,7 @@
         <v>30</v>
       </c>
       <c r="B733" t="n">
-        <v>4.230769230769231</v>
+        <v>5</v>
       </c>
       <c r="C733" t="n">
         <v>3</v>
@@ -10893,7 +10893,7 @@
         <v>4</v>
       </c>
       <c r="C747" t="n">
-        <v>4</v>
+        <v>3.923076923076923</v>
       </c>
       <c r="D747" t="n">
         <v>4.65</v>
@@ -12192,7 +12192,7 @@
         <v>90</v>
       </c>
       <c r="B840" t="n">
-        <v>2</v>
+        <v>3.461538461538462</v>
       </c>
       <c r="C840" t="n">
         <v>7</v>
@@ -12265,7 +12265,7 @@
         <v>1</v>
       </c>
       <c r="C845" t="n">
-        <v>2.384615384615385</v>
+        <v>3</v>
       </c>
       <c r="D845" t="n">
         <v>4.8</v>
@@ -12755,7 +12755,7 @@
         <v>2</v>
       </c>
       <c r="C880" t="n">
-        <v>2.384615384615385</v>
+        <v>3</v>
       </c>
       <c r="D880" t="n">
         <v>4.5</v>
@@ -12769,7 +12769,7 @@
         <v>3</v>
       </c>
       <c r="C881" t="n">
-        <v>4.692307692307693</v>
+        <v>3</v>
       </c>
       <c r="D881" t="n">
         <v>8.199999999999999</v>
@@ -13021,7 +13021,7 @@
         <v>6</v>
       </c>
       <c r="C899" t="n">
-        <v>3</v>
+        <v>3.076923076923077</v>
       </c>
       <c r="D899" t="n">
         <v>4.3</v>
@@ -13592,7 +13592,7 @@
         <v>372</v>
       </c>
       <c r="B940" t="n">
-        <v>1</v>
+        <v>2.769230769230769</v>
       </c>
       <c r="C940" t="n">
         <v>5</v>
@@ -13662,7 +13662,7 @@
         <v>28</v>
       </c>
       <c r="B945" t="n">
-        <v>3.230769230769231</v>
+        <v>5</v>
       </c>
       <c r="C945" t="n">
         <v>2</v>
@@ -13721,7 +13721,7 @@
         <v>4</v>
       </c>
       <c r="C949" t="n">
-        <v>3.230769230769231</v>
+        <v>3</v>
       </c>
       <c r="D949" t="n">
         <v>5.8</v>
@@ -14026,7 +14026,7 @@
         <v>90</v>
       </c>
       <c r="B971" t="n">
-        <v>2</v>
+        <v>2.615384615384615</v>
       </c>
       <c r="C971" t="n">
         <v>3</v>
@@ -14586,7 +14586,7 @@
         <v>90</v>
       </c>
       <c r="B1011" t="n">
-        <v>3.923076923076923</v>
+        <v>4</v>
       </c>
       <c r="C1011" t="n">
         <v>5</v>
@@ -15132,7 +15132,7 @@
         <v>80</v>
       </c>
       <c r="B1050" t="n">
-        <v>1.923076923076923</v>
+        <v>1</v>
       </c>
       <c r="C1050" t="n">
         <v>2</v>
@@ -15177,7 +15177,7 @@
         <v>2</v>
       </c>
       <c r="C1053" t="n">
-        <v>3</v>
+        <v>3.538461538461538</v>
       </c>
       <c r="D1053" t="n">
         <v>4.3</v>
@@ -15485,7 +15485,7 @@
         <v>3</v>
       </c>
       <c r="C1075" t="n">
-        <v>2.384615384615385</v>
+        <v>2</v>
       </c>
       <c r="D1075" t="n">
         <v>1.6</v>
@@ -15636,7 +15636,7 @@
         <v>70</v>
       </c>
       <c r="B1086" t="n">
-        <v>4.153846153846154</v>
+        <v>5</v>
       </c>
       <c r="C1086" t="n">
         <v>3</v>
@@ -15874,7 +15874,7 @@
         <v>20</v>
       </c>
       <c r="B1103" t="n">
-        <v>2.769230769230769</v>
+        <v>5</v>
       </c>
       <c r="C1103" t="n">
         <v>3</v>
@@ -15916,7 +15916,7 @@
         <v>137</v>
       </c>
       <c r="B1106" t="n">
-        <v>3</v>
+        <v>4.615384615384615</v>
       </c>
       <c r="C1106" t="n">
         <v>9</v>
@@ -16101,7 +16101,7 @@
         <v>4</v>
       </c>
       <c r="C1119" t="n">
-        <v>3</v>
+        <v>6.769230769230769</v>
       </c>
       <c r="D1119" t="n">
         <v>17.5</v>
@@ -16857,7 +16857,7 @@
         <v>5</v>
       </c>
       <c r="C1173" t="n">
-        <v>3.307692307692307</v>
+        <v>3</v>
       </c>
       <c r="D1173" t="n">
         <v>2.75</v>
@@ -17064,7 +17064,7 @@
         <v>30</v>
       </c>
       <c r="B1188" t="n">
-        <v>4.461538461538462</v>
+        <v>6</v>
       </c>
       <c r="C1188" t="n">
         <v>4</v>
@@ -17459,7 +17459,7 @@
         <v>1</v>
       </c>
       <c r="C1216" t="n">
-        <v>2</v>
+        <v>2.615384615384615</v>
       </c>
       <c r="D1216" t="n">
         <v>3.9</v>
@@ -17904,7 +17904,7 @@
         <v>70</v>
       </c>
       <c r="B1248" t="n">
-        <v>4</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="C1248" t="n">
         <v>4</v>
@@ -17974,7 +17974,7 @@
         <v>68</v>
       </c>
       <c r="B1253" t="n">
-        <v>3.230769230769231</v>
+        <v>3</v>
       </c>
       <c r="C1253" t="n">
         <v>4</v>
@@ -18005,7 +18005,7 @@
         <v>2</v>
       </c>
       <c r="C1255" t="n">
-        <v>2</v>
+        <v>2.692307692307693</v>
       </c>
       <c r="D1255" t="n">
         <v>3.9</v>
@@ -18075,7 +18075,7 @@
         <v>3</v>
       </c>
       <c r="C1260" t="n">
-        <v>17.53846153846154</v>
+        <v>5</v>
       </c>
       <c r="D1260" t="n">
         <v>45.5</v>
@@ -18173,7 +18173,7 @@
         <v>3</v>
       </c>
       <c r="C1267" t="n">
-        <v>3.692307692307693</v>
+        <v>5</v>
       </c>
       <c r="D1267" t="n">
         <v>5.8</v>
@@ -18282,7 +18282,7 @@
         <v>45</v>
       </c>
       <c r="B1275" t="n">
-        <v>3.846153846153846</v>
+        <v>5</v>
       </c>
       <c r="C1275" t="n">
         <v>3</v>
@@ -18593,7 +18593,7 @@
         <v>2</v>
       </c>
       <c r="C1297" t="n">
-        <v>2.307692307692307</v>
+        <v>2</v>
       </c>
       <c r="D1297" t="n">
         <v>4.5</v>
@@ -18691,7 +18691,7 @@
         <v>5</v>
       </c>
       <c r="C1304" t="n">
-        <v>2.846153846153846</v>
+        <v>3</v>
       </c>
       <c r="D1304" t="n">
         <v>4</v>
@@ -18716,7 +18716,7 @@
         <v>36</v>
       </c>
       <c r="B1306" t="n">
-        <v>4.538461538461538</v>
+        <v>4</v>
       </c>
       <c r="C1306" t="n">
         <v>4</v>
@@ -18786,7 +18786,7 @@
         <v>40</v>
       </c>
       <c r="B1311" t="n">
-        <v>5</v>
+        <v>3.307692307692307</v>
       </c>
       <c r="C1311" t="n">
         <v>3</v>
@@ -18971,7 +18971,7 @@
         <v>5</v>
       </c>
       <c r="C1324" t="n">
-        <v>4.076923076923077</v>
+        <v>4</v>
       </c>
       <c r="D1324" t="n">
         <v>3.6</v>
@@ -21054,7 +21054,7 @@
         <v>53</v>
       </c>
       <c r="B1473" t="n">
-        <v>3.538461538461538</v>
+        <v>4</v>
       </c>
       <c r="C1473" t="n">
         <v>4</v>
@@ -21085,7 +21085,7 @@
         <v>5</v>
       </c>
       <c r="C1475" t="n">
-        <v>1</v>
+        <v>4.615384615384615</v>
       </c>
       <c r="D1475" t="n">
         <v>7.7</v>
@@ -21701,7 +21701,7 @@
         <v>3</v>
       </c>
       <c r="C1519" t="n">
-        <v>4</v>
+        <v>3.538461538461538</v>
       </c>
       <c r="D1519" t="n">
         <v>7.2</v>
@@ -22275,7 +22275,7 @@
         <v>4</v>
       </c>
       <c r="C1560" t="n">
-        <v>3.461538461538462</v>
+        <v>4</v>
       </c>
       <c r="D1560" t="n">
         <v>4.5</v>
@@ -22373,7 +22373,7 @@
         <v>4</v>
       </c>
       <c r="C1567" t="n">
-        <v>2.846153846153846</v>
+        <v>3</v>
       </c>
       <c r="D1567" t="n">
         <v>5.4</v>
@@ -22457,7 +22457,7 @@
         <v>2</v>
       </c>
       <c r="C1573" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1573" t="n">
         <v>2.35</v>
@@ -22524,7 +22524,7 @@
         <v>64</v>
       </c>
       <c r="B1578" t="n">
-        <v>1</v>
+        <v>2.153846153846154</v>
       </c>
       <c r="C1578" t="n">
         <v>3</v>
@@ -22720,7 +22720,7 @@
         <v>110</v>
       </c>
       <c r="B1592" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1592" t="n">
         <v>4</v>
@@ -23700,7 +23700,7 @@
         <v>45</v>
       </c>
       <c r="B1662" t="n">
-        <v>6</v>
+        <v>4.307692307692307</v>
       </c>
       <c r="C1662" t="n">
         <v>7</v>
@@ -24386,7 +24386,7 @@
         <v>50</v>
       </c>
       <c r="B1711" t="n">
-        <v>3</v>
+        <v>2.923076923076923</v>
       </c>
       <c r="C1711" t="n">
         <v>2</v>
@@ -24498,7 +24498,7 @@
         <v>36</v>
       </c>
       <c r="B1719" t="n">
-        <v>5</v>
+        <v>3.461538461538462</v>
       </c>
       <c r="C1719" t="n">
         <v>3</v>
@@ -24806,7 +24806,7 @@
         <v>45</v>
       </c>
       <c r="B1741" t="n">
-        <v>5</v>
+        <v>5.076923076923077</v>
       </c>
       <c r="C1741" t="n">
         <v>3</v>
@@ -25607,7 +25607,7 @@
         <v>2</v>
       </c>
       <c r="C1798" t="n">
-        <v>2.769230769230769</v>
+        <v>2</v>
       </c>
       <c r="D1798" t="n">
         <v>3.4</v>
@@ -26083,7 +26083,7 @@
         <v>2</v>
       </c>
       <c r="C1832" t="n">
-        <v>4.307692307692307</v>
+        <v>6</v>
       </c>
       <c r="D1832" t="n">
         <v>13.2</v>
@@ -26251,7 +26251,7 @@
         <v>2</v>
       </c>
       <c r="C1844" t="n">
-        <v>3</v>
+        <v>5.153846153846154</v>
       </c>
       <c r="D1844" t="n">
         <v>5.3</v>
@@ -26517,7 +26517,7 @@
         <v>1</v>
       </c>
       <c r="C1863" t="n">
-        <v>3.384615384615385</v>
+        <v>4</v>
       </c>
       <c r="D1863" t="n">
         <v>4.8</v>
@@ -26587,7 +26587,7 @@
         <v>5</v>
       </c>
       <c r="C1868" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1868" t="n">
         <v>6.5</v>
@@ -26780,7 +26780,7 @@
         <v>50.8</v>
       </c>
       <c r="B1882" t="n">
-        <v>3.076923076923077</v>
+        <v>2</v>
       </c>
       <c r="C1882" t="n">
         <v>4</v>
@@ -27060,7 +27060,7 @@
         <v>60</v>
       </c>
       <c r="B1902" t="n">
-        <v>3</v>
+        <v>2.769230769230769</v>
       </c>
       <c r="C1902" t="n">
         <v>3</v>
@@ -27256,7 +27256,7 @@
         <v>40</v>
       </c>
       <c r="B1916" t="n">
-        <v>4</v>
+        <v>3.769230769230769</v>
       </c>
       <c r="C1916" t="n">
         <v>4</v>
@@ -27511,7 +27511,7 @@
         <v>5</v>
       </c>
       <c r="C1934" t="n">
-        <v>3.230769230769231</v>
+        <v>4</v>
       </c>
       <c r="D1934" t="n">
         <v>4.5</v>
@@ -27760,7 +27760,7 @@
         <v>80</v>
       </c>
       <c r="B1952" t="n">
-        <v>1.923076923076923</v>
+        <v>1</v>
       </c>
       <c r="C1952" t="n">
         <v>3</v>
@@ -28085,7 +28085,7 @@
         <v>6</v>
       </c>
       <c r="C1975" t="n">
-        <v>6.307692307692307</v>
+        <v>7</v>
       </c>
       <c r="D1975" t="n">
         <v>6.3</v>
@@ -28698,7 +28698,7 @@
         <v>28</v>
       </c>
       <c r="B2019" t="n">
-        <v>5</v>
+        <v>3.230769230769231</v>
       </c>
       <c r="C2019" t="n">
         <v>2</v>
@@ -28978,7 +28978,7 @@
         <v>100</v>
       </c>
       <c r="B2039" t="n">
-        <v>4</v>
+        <v>4.153846153846154</v>
       </c>
       <c r="C2039" t="n">
         <v>5</v>
@@ -29149,7 +29149,7 @@
         <v>1</v>
       </c>
       <c r="C2051" t="n">
-        <v>3</v>
+        <v>2.615384615384615</v>
       </c>
       <c r="D2051" t="n">
         <v>6.85</v>
@@ -29373,7 +29373,7 @@
         <v>3</v>
       </c>
       <c r="C2067" t="n">
-        <v>3</v>
+        <v>3.384615384615385</v>
       </c>
       <c r="D2067" t="n">
         <v>4.19</v>
@@ -29538,10 +29538,10 @@
         <v>72</v>
       </c>
       <c r="B2079" t="n">
-        <v>2.769230769230769</v>
+        <v>3</v>
       </c>
       <c r="C2079" t="n">
-        <v>4</v>
+        <v>3.384615384615385</v>
       </c>
       <c r="D2079" t="n">
         <v>5.8</v>
@@ -29597,7 +29597,7 @@
         <v>3</v>
       </c>
       <c r="C2083" t="n">
-        <v>4</v>
+        <v>5.384615384615385</v>
       </c>
       <c r="D2083" t="n">
         <v>12.3</v>
@@ -29793,7 +29793,7 @@
         <v>5</v>
       </c>
       <c r="C2097" t="n">
-        <v>4</v>
+        <v>4.153846153846154</v>
       </c>
       <c r="D2097" t="n">
         <v>4.7</v>
@@ -29888,7 +29888,7 @@
         <v>520</v>
       </c>
       <c r="B2104" t="n">
-        <v>3</v>
+        <v>3.461538461538462</v>
       </c>
       <c r="C2104" t="n">
         <v>5</v>
@@ -30854,7 +30854,7 @@
         <v>62</v>
       </c>
       <c r="B2173" t="n">
-        <v>4</v>
+        <v>3.615384615384615</v>
       </c>
       <c r="C2173" t="n">
         <v>4</v>
@@ -31375,7 +31375,7 @@
         <v>3</v>
       </c>
       <c r="C2210" t="n">
-        <v>3.076923076923077</v>
+        <v>3</v>
       </c>
       <c r="D2210" t="n">
         <v>5.3</v>
@@ -31739,7 +31739,7 @@
         <v>2</v>
       </c>
       <c r="C2236" t="n">
-        <v>2.384615384615385</v>
+        <v>3</v>
       </c>
       <c r="D2236" t="n">
         <v>3.9</v>
@@ -32394,7 +32394,7 @@
         <v>28</v>
       </c>
       <c r="B2283" t="n">
-        <v>3.769230769230769</v>
+        <v>5</v>
       </c>
       <c r="C2283" t="n">
         <v>3</v>
@@ -32534,7 +32534,7 @@
         <v>15</v>
       </c>
       <c r="B2293" t="n">
-        <v>2.692307692307693</v>
+        <v>3</v>
       </c>
       <c r="C2293" t="n">
         <v>2</v>
@@ -32814,7 +32814,7 @@
         <v>40</v>
       </c>
       <c r="B2313" t="n">
-        <v>3.076923076923077</v>
+        <v>3</v>
       </c>
       <c r="C2313" t="n">
         <v>3</v>
@@ -32828,7 +32828,7 @@
         <v>52</v>
       </c>
       <c r="B2314" t="n">
-        <v>2</v>
+        <v>3.153846153846154</v>
       </c>
       <c r="C2314" t="n">
         <v>4</v>
@@ -32859,7 +32859,7 @@
         <v>4</v>
       </c>
       <c r="C2316" t="n">
-        <v>4</v>
+        <v>3.538461538461538</v>
       </c>
       <c r="D2316" t="n">
         <v>5</v>
@@ -32898,7 +32898,7 @@
         <v>45</v>
       </c>
       <c r="B2319" t="n">
-        <v>2</v>
+        <v>3.769230769230769</v>
       </c>
       <c r="C2319" t="n">
         <v>3</v>
@@ -34508,7 +34508,7 @@
         <v>52</v>
       </c>
       <c r="B2434" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2434" t="n">
         <v>5</v>
@@ -34606,7 +34606,7 @@
         <v>103</v>
       </c>
       <c r="B2441" t="n">
-        <v>2</v>
+        <v>2.307692307692307</v>
       </c>
       <c r="C2441" t="n">
         <v>3</v>
@@ -34648,7 +34648,7 @@
         <v>48</v>
       </c>
       <c r="B2444" t="n">
-        <v>1.538461538461539</v>
+        <v>1</v>
       </c>
       <c r="C2444" t="n">
         <v>2</v>
@@ -34676,7 +34676,7 @@
         <v>85</v>
       </c>
       <c r="B2446" t="n">
-        <v>3.307692307692307</v>
+        <v>3</v>
       </c>
       <c r="C2446" t="n">
         <v>4</v>
@@ -35085,7 +35085,7 @@
         <v>3</v>
       </c>
       <c r="C2475" t="n">
-        <v>4</v>
+        <v>3.076923076923077</v>
       </c>
       <c r="D2475" t="n">
         <v>4.3</v>
@@ -35236,7 +35236,7 @@
         <v>64</v>
       </c>
       <c r="B2486" t="n">
-        <v>3.307692307692307</v>
+        <v>3</v>
       </c>
       <c r="C2486" t="n">
         <v>5</v>
@@ -35435,7 +35435,7 @@
         <v>4</v>
       </c>
       <c r="C2500" t="n">
-        <v>3.769230769230769</v>
+        <v>4</v>
       </c>
       <c r="D2500" t="n">
         <v>8.4</v>
@@ -35502,7 +35502,7 @@
         <v>35</v>
       </c>
       <c r="B2505" t="n">
-        <v>4</v>
+        <v>4.769230769230769</v>
       </c>
       <c r="C2505" t="n">
         <v>3</v>
@@ -36706,7 +36706,7 @@
         <v>61</v>
       </c>
       <c r="B2591" t="n">
-        <v>1.769230769230769</v>
+        <v>2</v>
       </c>
       <c r="C2591" t="n">
         <v>3</v>
@@ -37490,7 +37490,7 @@
         <v>90</v>
       </c>
       <c r="B2647" t="n">
-        <v>4</v>
+        <v>2.923076923076923</v>
       </c>
       <c r="C2647" t="n">
         <v>5</v>
@@ -38008,7 +38008,7 @@
         <v>62</v>
       </c>
       <c r="B2684" t="n">
-        <v>2</v>
+        <v>1.846153846153846</v>
       </c>
       <c r="C2684" t="n">
         <v>3</v>
@@ -38361,7 +38361,7 @@
         <v>2</v>
       </c>
       <c r="C2709" t="n">
-        <v>3</v>
+        <v>4.846153846153846</v>
       </c>
       <c r="D2709" t="n">
         <v>27</v>
@@ -39702,7 +39702,7 @@
         <v>56</v>
       </c>
       <c r="B2805" t="n">
-        <v>3.461538461538462</v>
+        <v>3</v>
       </c>
       <c r="C2805" t="n">
         <v>4</v>
@@ -39859,7 +39859,7 @@
         <v>5</v>
       </c>
       <c r="C2816" t="n">
-        <v>4.307692307692307</v>
+        <v>7</v>
       </c>
       <c r="D2816" t="n">
         <v>12.8</v>
@@ -39999,7 +39999,7 @@
         <v>3</v>
       </c>
       <c r="C2826" t="n">
-        <v>3</v>
+        <v>3.692307692307693</v>
       </c>
       <c r="D2826" t="n">
         <v>9.5</v>
@@ -41494,7 +41494,7 @@
         <v>60</v>
       </c>
       <c r="B2933" t="n">
-        <v>3.461538461538462</v>
+        <v>5</v>
       </c>
       <c r="C2933" t="n">
         <v>5</v>
@@ -42687,7 +42687,7 @@
         <v>3</v>
       </c>
       <c r="C3018" t="n">
-        <v>5.615384615384615</v>
+        <v>2</v>
       </c>
       <c r="D3018" t="n">
         <v>4.3</v>
@@ -42883,7 +42883,7 @@
         <v>5</v>
       </c>
       <c r="C3032" t="n">
-        <v>4.769230769230769</v>
+        <v>5</v>
       </c>
       <c r="D3032" t="n">
         <v>9.5</v>
@@ -43048,7 +43048,7 @@
         <v>68</v>
       </c>
       <c r="B3044" t="n">
-        <v>2.538461538461538</v>
+        <v>1</v>
       </c>
       <c r="C3044" t="n">
         <v>2</v>
@@ -43205,7 +43205,7 @@
         <v>3</v>
       </c>
       <c r="C3055" t="n">
-        <v>3</v>
+        <v>3.538461538461538</v>
       </c>
       <c r="D3055" t="n">
         <v>5.3</v>
@@ -43300,7 +43300,7 @@
         <v>75</v>
       </c>
       <c r="B3062" t="n">
-        <v>3</v>
+        <v>2.230769230769231</v>
       </c>
       <c r="C3062" t="n">
         <v>3</v>
@@ -43849,7 +43849,7 @@
         <v>4</v>
       </c>
       <c r="C3101" t="n">
-        <v>3.461538461538462</v>
+        <v>5</v>
       </c>
       <c r="D3101" t="n">
         <v>6.1</v>
@@ -44213,7 +44213,7 @@
         <v>2</v>
       </c>
       <c r="C3127" t="n">
-        <v>3</v>
+        <v>2.384615384615385</v>
       </c>
       <c r="D3127" t="n">
         <v>3.95</v>
@@ -44476,7 +44476,7 @@
         <v>38</v>
       </c>
       <c r="B3146" t="n">
-        <v>4.076923076923077</v>
+        <v>4</v>
       </c>
       <c r="C3146" t="n">
         <v>3</v>
@@ -44574,7 +44574,7 @@
         <v>62</v>
       </c>
       <c r="B3153" t="n">
-        <v>3.923076923076923</v>
+        <v>4</v>
       </c>
       <c r="C3153" t="n">
         <v>5</v>
@@ -44759,7 +44759,7 @@
         <v>4</v>
       </c>
       <c r="C3166" t="n">
-        <v>4</v>
+        <v>4.076923076923077</v>
       </c>
       <c r="D3166" t="n">
         <v>7.5</v>
@@ -45554,7 +45554,7 @@
         <v>48</v>
       </c>
       <c r="B3223" t="n">
-        <v>3.307692307692307</v>
+        <v>4</v>
       </c>
       <c r="C3223" t="n">
         <v>4</v>
@@ -46800,7 +46800,7 @@
         <v>144</v>
       </c>
       <c r="B3312" t="n">
-        <v>6</v>
+        <v>5.153846153846154</v>
       </c>
       <c r="C3312" t="n">
         <v>32</v>
@@ -46926,7 +46926,7 @@
         <v>46</v>
       </c>
       <c r="B3321" t="n">
-        <v>1.846153846153846</v>
+        <v>1</v>
       </c>
       <c r="C3321" t="n">
         <v>2</v>
@@ -46996,7 +46996,7 @@
         <v>48</v>
       </c>
       <c r="B3326" t="n">
-        <v>1</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="C3326" t="n">
         <v>2</v>
@@ -47472,7 +47472,7 @@
         <v>45</v>
       </c>
       <c r="B3360" t="n">
-        <v>4</v>
+        <v>2.384615384615385</v>
       </c>
       <c r="C3360" t="n">
         <v>3</v>
@@ -47531,7 +47531,7 @@
         <v>4</v>
       </c>
       <c r="C3364" t="n">
-        <v>3.307692307692307</v>
+        <v>3</v>
       </c>
       <c r="D3364" t="n">
         <v>3.8</v>
@@ -49029,7 +49029,7 @@
         <v>2</v>
       </c>
       <c r="C3471" t="n">
-        <v>2</v>
+        <v>2.923076923076923</v>
       </c>
       <c r="D3471" t="n">
         <v>3.1</v>
@@ -49432,7 +49432,7 @@
         <v>120</v>
       </c>
       <c r="B3500" t="n">
-        <v>2.615384615384615</v>
+        <v>3</v>
       </c>
       <c r="C3500" t="n">
         <v>3</v>
@@ -49729,7 +49729,7 @@
         <v>1</v>
       </c>
       <c r="C3521" t="n">
-        <v>3.923076923076923</v>
+        <v>3</v>
       </c>
       <c r="D3521" t="n">
         <v>12.3</v>
@@ -49799,7 +49799,7 @@
         <v>3</v>
       </c>
       <c r="C3526" t="n">
-        <v>3</v>
+        <v>3.769230769230769</v>
       </c>
       <c r="D3526" t="n">
         <v>6</v>
@@ -50037,7 +50037,7 @@
         <v>2</v>
       </c>
       <c r="C3543" t="n">
-        <v>2</v>
+        <v>5.307692307692307</v>
       </c>
       <c r="D3543" t="n">
         <v>4.65</v>
@@ -50093,7 +50093,7 @@
         <v>4</v>
       </c>
       <c r="C3547" t="n">
-        <v>4</v>
+        <v>3.384615384615385</v>
       </c>
       <c r="D3547" t="n">
         <v>4.75</v>
@@ -50678,7 +50678,7 @@
         <v>90</v>
       </c>
       <c r="B3589" t="n">
-        <v>1.769230769230769</v>
+        <v>1</v>
       </c>
       <c r="C3589" t="n">
         <v>2</v>
@@ -51115,7 +51115,7 @@
         <v>4</v>
       </c>
       <c r="C3620" t="n">
-        <v>5</v>
+        <v>4.076923076923077</v>
       </c>
       <c r="D3620" t="n">
         <v>9.25</v>
@@ -51308,7 +51308,7 @@
         <v>45</v>
       </c>
       <c r="B3634" t="n">
-        <v>4</v>
+        <v>3.384615384615385</v>
       </c>
       <c r="C3634" t="n">
         <v>3</v>
@@ -52277,7 +52277,7 @@
         <v>4</v>
       </c>
       <c r="C3703" t="n">
-        <v>3.384615384615385</v>
+        <v>3</v>
       </c>
       <c r="D3703" t="n">
         <v>4.6</v>
@@ -52764,7 +52764,7 @@
         <v>76</v>
       </c>
       <c r="B3738" t="n">
-        <v>2.230769230769231</v>
+        <v>3</v>
       </c>
       <c r="C3738" t="n">
         <v>4</v>
@@ -53646,10 +53646,10 @@
         <v>48</v>
       </c>
       <c r="B3801" t="n">
-        <v>5</v>
+        <v>4.461538461538462</v>
       </c>
       <c r="C3801" t="n">
-        <v>4.307692307692307</v>
+        <v>6</v>
       </c>
       <c r="D3801" t="n">
         <v>7.6</v>
@@ -53870,7 +53870,7 @@
         <v>35</v>
       </c>
       <c r="B3817" t="n">
-        <v>5</v>
+        <v>2.615384615384615</v>
       </c>
       <c r="C3817" t="n">
         <v>1</v>
@@ -54293,7 +54293,7 @@
         <v>4</v>
       </c>
       <c r="C3847" t="n">
-        <v>4</v>
+        <v>5.461538461538462</v>
       </c>
       <c r="D3847" t="n">
         <v>7.7</v>
@@ -54377,7 +54377,7 @@
         <v>5</v>
       </c>
       <c r="C3853" t="n">
-        <v>3.153846153846154</v>
+        <v>3</v>
       </c>
       <c r="D3853" t="n">
         <v>4.4</v>
@@ -54643,7 +54643,7 @@
         <v>5</v>
       </c>
       <c r="C3872" t="n">
-        <v>4.307692307692307</v>
+        <v>6</v>
       </c>
       <c r="D3872" t="n">
         <v>5.32</v>
@@ -55508,7 +55508,7 @@
         <v>30</v>
       </c>
       <c r="B3934" t="n">
-        <v>3</v>
+        <v>2.461538461538462</v>
       </c>
       <c r="C3934" t="n">
         <v>2</v>
@@ -55844,7 +55844,7 @@
         <v>60</v>
       </c>
       <c r="B3958" t="n">
-        <v>4</v>
+        <v>3.230769230769231</v>
       </c>
       <c r="C3958" t="n">
         <v>4</v>
@@ -56141,7 +56141,7 @@
         <v>4</v>
       </c>
       <c r="C3979" t="n">
-        <v>3.923076923076923</v>
+        <v>4</v>
       </c>
       <c r="D3979" t="n">
         <v>4.8</v>
@@ -56754,7 +56754,7 @@
         <v>33</v>
       </c>
       <c r="B4023" t="n">
-        <v>1.692307692307692</v>
+        <v>1</v>
       </c>
       <c r="C4023" t="n">
         <v>2</v>
@@ -57678,7 +57678,7 @@
         <v>56</v>
       </c>
       <c r="B4089" t="n">
-        <v>1</v>
+        <v>1.846153846153846</v>
       </c>
       <c r="C4089" t="n">
         <v>2</v>
@@ -57804,7 +57804,7 @@
         <v>100</v>
       </c>
       <c r="B4098" t="n">
-        <v>2.769230769230769</v>
+        <v>3</v>
       </c>
       <c r="C4098" t="n">
         <v>5</v>
@@ -58885,7 +58885,7 @@
         <v>3</v>
       </c>
       <c r="C4175" t="n">
-        <v>4</v>
+        <v>4.615384615384615</v>
       </c>
       <c r="D4175" t="n">
         <v>16.5</v>
@@ -59064,7 +59064,7 @@
         <v>30</v>
       </c>
       <c r="B4188" t="n">
-        <v>4.461538461538462</v>
+        <v>5</v>
       </c>
       <c r="C4188" t="n">
         <v>3</v>
@@ -60100,7 +60100,7 @@
         <v>40</v>
       </c>
       <c r="B4262" t="n">
-        <v>1</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="C4262" t="n">
         <v>2</v>
@@ -61769,7 +61769,7 @@
         <v>1</v>
       </c>
       <c r="C4381" t="n">
-        <v>3</v>
+        <v>2.461538461538462</v>
       </c>
       <c r="D4381" t="n">
         <v>4.5</v>
@@ -61867,7 +61867,7 @@
         <v>5</v>
       </c>
       <c r="C4388" t="n">
-        <v>4</v>
+        <v>5.923076923076923</v>
       </c>
       <c r="D4388" t="n">
         <v>14.6</v>
@@ -61878,7 +61878,7 @@
         <v>125</v>
       </c>
       <c r="B4389" t="n">
-        <v>4</v>
+        <v>3.538461538461538</v>
       </c>
       <c r="C4389" t="n">
         <v>7</v>
@@ -61923,7 +61923,7 @@
         <v>3</v>
       </c>
       <c r="C4392" t="n">
-        <v>7</v>
+        <v>6.230769230769231</v>
       </c>
       <c r="D4392" t="n">
         <v>16.3</v>
@@ -61934,7 +61934,7 @@
         <v>125</v>
       </c>
       <c r="B4393" t="n">
-        <v>2</v>
+        <v>1.692307692307692</v>
       </c>
       <c r="C4393" t="n">
         <v>3</v>
@@ -62102,7 +62102,7 @@
         <v>45</v>
       </c>
       <c r="B4405" t="n">
-        <v>5</v>
+        <v>3.384615384615385</v>
       </c>
       <c r="C4405" t="n">
         <v>3</v>
@@ -62231,7 +62231,7 @@
         <v>2</v>
       </c>
       <c r="C4414" t="n">
-        <v>4</v>
+        <v>3.230769230769231</v>
       </c>
       <c r="D4414" t="n">
         <v>5.8</v>
@@ -62455,7 +62455,7 @@
         <v>3</v>
       </c>
       <c r="C4430" t="n">
-        <v>2.769230769230769</v>
+        <v>3</v>
       </c>
       <c r="D4430" t="n">
         <v>2.7</v>
@@ -63057,7 +63057,7 @@
         <v>4</v>
       </c>
       <c r="C4473" t="n">
-        <v>4.384615384615385</v>
+        <v>5</v>
       </c>
       <c r="D4473" t="n">
         <v>7.1</v>
@@ -63082,7 +63082,7 @@
         <v>27</v>
       </c>
       <c r="B4475" t="n">
-        <v>1</v>
+        <v>1.923076923076923</v>
       </c>
       <c r="C4475" t="n">
         <v>2</v>
@@ -64314,7 +64314,7 @@
         <v>80</v>
       </c>
       <c r="B4563" t="n">
-        <v>3.307692307692307</v>
+        <v>3</v>
       </c>
       <c r="C4563" t="n">
         <v>4</v>
@@ -64342,7 +64342,7 @@
         <v>48</v>
       </c>
       <c r="B4565" t="n">
-        <v>2</v>
+        <v>2.923076923076923</v>
       </c>
       <c r="C4565" t="n">
         <v>3</v>
@@ -64611,7 +64611,7 @@
         <v>2</v>
       </c>
       <c r="C4584" t="n">
-        <v>3</v>
+        <v>2.384615384615385</v>
       </c>
       <c r="D4584" t="n">
         <v>2.7</v>
@@ -64723,7 +64723,7 @@
         <v>5</v>
       </c>
       <c r="C4592" t="n">
-        <v>3.923076923076923</v>
+        <v>5</v>
       </c>
       <c r="D4592" t="n">
         <v>5.1</v>
@@ -65686,7 +65686,7 @@
         <v>55</v>
       </c>
       <c r="B4661" t="n">
-        <v>2</v>
+        <v>4.076923076923077</v>
       </c>
       <c r="C4661" t="n">
         <v>4</v>
@@ -65983,7 +65983,7 @@
         <v>6</v>
       </c>
       <c r="C4682" t="n">
-        <v>4.692307692307693</v>
+        <v>3</v>
       </c>
       <c r="D4682" t="n">
         <v>8.1</v>
@@ -66193,7 +66193,7 @@
         <v>2</v>
       </c>
       <c r="C4697" t="n">
-        <v>3</v>
+        <v>7.615384615384615</v>
       </c>
       <c r="D4697" t="n">
         <v>30.5</v>
@@ -66221,7 +66221,7 @@
         <v>1</v>
       </c>
       <c r="C4699" t="n">
-        <v>2.692307692307693</v>
+        <v>3</v>
       </c>
       <c r="D4699" t="n">
         <v>6.2</v>
@@ -66263,7 +66263,7 @@
         <v>2</v>
       </c>
       <c r="C4702" t="n">
-        <v>3</v>
+        <v>2.692307692307693</v>
       </c>
       <c r="D4702" t="n">
         <v>6.3</v>
@@ -66431,7 +66431,7 @@
         <v>2</v>
       </c>
       <c r="C4714" t="n">
-        <v>3</v>
+        <v>4.076923076923077</v>
       </c>
       <c r="D4714" t="n">
         <v>7.7</v>
@@ -66624,7 +66624,7 @@
         <v>102</v>
       </c>
       <c r="B4728" t="n">
-        <v>4</v>
+        <v>4.230769230769231</v>
       </c>
       <c r="C4728" t="n">
         <v>8</v>
@@ -67632,7 +67632,7 @@
         <v>38</v>
       </c>
       <c r="B4800" t="n">
-        <v>4.692307692307693</v>
+        <v>5</v>
       </c>
       <c r="C4800" t="n">
         <v>5</v>
@@ -67831,7 +67831,7 @@
         <v>2</v>
       </c>
       <c r="C4814" t="n">
-        <v>3.153846153846154</v>
+        <v>2</v>
       </c>
       <c r="D4814" t="n">
         <v>6.2</v>
@@ -68069,7 +68069,7 @@
         <v>1</v>
       </c>
       <c r="C4831" t="n">
-        <v>2</v>
+        <v>2.461538461538462</v>
       </c>
       <c r="D4831" t="n">
         <v>4.2</v>
@@ -69287,7 +69287,7 @@
         <v>4</v>
       </c>
       <c r="C4918" t="n">
-        <v>5</v>
+        <v>4.461538461538462</v>
       </c>
       <c r="D4918" t="n">
         <v>8.300000000000001</v>
@@ -72129,7 +72129,7 @@
         <v>4</v>
       </c>
       <c r="C5121" t="n">
-        <v>4.153846153846154</v>
+        <v>3</v>
       </c>
       <c r="D5121" t="n">
         <v>7.3</v>
@@ -72518,7 +72518,7 @@
         <v>210</v>
       </c>
       <c r="B5149" t="n">
-        <v>3.230769230769231</v>
+        <v>3</v>
       </c>
       <c r="C5149" t="n">
         <v>3</v>
@@ -72798,7 +72798,7 @@
         <v>66</v>
       </c>
       <c r="B5169" t="n">
-        <v>4.230769230769231</v>
+        <v>3</v>
       </c>
       <c r="C5169" t="n">
         <v>4</v>
@@ -73851,7 +73851,7 @@
         <v>2</v>
       </c>
       <c r="C5244" t="n">
-        <v>3</v>
+        <v>3.307692307692307</v>
       </c>
       <c r="D5244" t="n">
         <v>4.85</v>
@@ -74187,7 +74187,7 @@
         <v>5</v>
       </c>
       <c r="C5268" t="n">
-        <v>4.615384615384615</v>
+        <v>5</v>
       </c>
       <c r="D5268" t="n">
         <v>6.9</v>
@@ -74618,7 +74618,7 @@
         <v>87</v>
       </c>
       <c r="B5299" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5299" t="n">
         <v>2</v>
@@ -74702,7 +74702,7 @@
         <v>60</v>
       </c>
       <c r="B5305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5305" t="n">
         <v>3</v>
